--- a/Supplemental_Files/Table_S3.xlsx
+++ b/Supplemental_Files/Table_S3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saman\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E261D50-1FD0-4B68-8BD9-27CD1AF2E95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19F6283-1442-4333-B76C-D60CF0D61DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4BEA38BD-7538-41C9-87B3-8DB8BF4921BA}"/>
   </bookViews>
@@ -38,40 +38,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>90% set</t>
-  </si>
-  <si>
     <t>Sets</t>
   </si>
   <si>
+    <t>≥84% set</t>
+  </si>
+  <si>
+    <t>&lt;75% set</t>
+  </si>
+  <si>
+    <t>≥75% set</t>
+  </si>
+  <si>
+    <t>≥78% set</t>
+  </si>
+  <si>
+    <t>≥81% set</t>
+  </si>
+  <si>
+    <t>TATAT, TATAA, ATATA, ATAAA</t>
+  </si>
+  <si>
+    <t>TAAAT, TATTT, TTTAT, TATTA, ATTTA, TAAAA, TTTAA, TTATA, ATTAA, TTAAA</t>
+  </si>
+  <si>
+    <t>ATATT, TTAAT, AAATA, TTTTT, ATAAT, AAAAA, TTTTA</t>
+  </si>
+  <si>
+    <t>ATTTT, AATTA, TTATT, TAATA, AATAT, ATTAT, AATAA</t>
+  </si>
+  <si>
+    <t>AAATT, AATTT, AAAAT, TAATT</t>
+  </si>
+  <si>
     <t>Pentamer contents</t>
-  </si>
-  <si>
-    <t>80% set</t>
-  </si>
-  <si>
-    <t>70% set</t>
-  </si>
-  <si>
-    <t>60% set</t>
-  </si>
-  <si>
-    <t>TATAless</t>
-  </si>
-  <si>
-    <t>TATAA, ATAAA, TAAAA, ATATA</t>
-  </si>
-  <si>
-    <t>TATAT, TAAAT, TTAAA, ATTAA</t>
-  </si>
-  <si>
-    <t>AATAA, AAAAA, ATAAT, TTTAA, TATTA, AAATA, TTATA, ATTTA, AAAAT, TAATA, AATAT, ATATT, TTTAT</t>
-  </si>
-  <si>
-    <t>TATTT, TTAAT, AAATT, TAATT, AATTA, ATTAT</t>
-  </si>
-  <si>
-    <t>TTTTA, AATTT, TTATT, ATTTT, TTTTT</t>
   </si>
 </sst>
 </file>
@@ -128,11 +128,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F597A0EE-A654-49A4-88AF-B5CE94BFFBEF}" name="Tabulka3" displayName="Tabulka3" ref="A1:B6" totalsRowShown="0">
-  <autoFilter ref="A1:B6" xr:uid="{F597A0EE-A654-49A4-88AF-B5CE94BFFBEF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FD0ADE6-7306-4938-BAAF-55F556CDB269}" name="Tabulka32" displayName="Tabulka32" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6" xr:uid="{8FD0ADE6-7306-4938-BAAF-55F556CDB269}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{30EE821A-545A-4267-BBCD-E06754BD285F}" name="Sets"/>
-    <tableColumn id="2" xr3:uid="{E0C093FD-EBCE-4D41-B959-E7870704AAC0}" name="Pentamer contents"/>
+    <tableColumn id="1" xr3:uid="{D9ACD5EC-13DC-471C-8CBD-F39540A98A14}" name="Sets"/>
+    <tableColumn id="2" xr3:uid="{65E64839-C436-416F-A5AC-4599D966F234}" name="Pentamer contents"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -438,7 +438,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,26 +449,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -476,23 +476,23 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Supplemental_Files/Table_S3.xlsx
+++ b/Supplemental_Files/Table_S3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saman\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19F6283-1442-4333-B76C-D60CF0D61DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA07271-3CC8-4B3D-9681-2D53D6107881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4BEA38BD-7538-41C9-87B3-8DB8BF4921BA}"/>
   </bookViews>
@@ -41,21 +41,6 @@
     <t>Sets</t>
   </si>
   <si>
-    <t>≥84% set</t>
-  </si>
-  <si>
-    <t>&lt;75% set</t>
-  </si>
-  <si>
-    <t>≥75% set</t>
-  </si>
-  <si>
-    <t>≥78% set</t>
-  </si>
-  <si>
-    <t>≥81% set</t>
-  </si>
-  <si>
     <t>TATAT, TATAA, ATATA, ATAAA</t>
   </si>
   <si>
@@ -72,6 +57,21 @@
   </si>
   <si>
     <t>Pentamer contents</t>
+  </si>
+  <si>
+    <t>≥0.84 set</t>
+  </si>
+  <si>
+    <t>≥0.81 set</t>
+  </si>
+  <si>
+    <t>≥0.78 set</t>
+  </si>
+  <si>
+    <t>≥0.75 set</t>
+  </si>
+  <si>
+    <t>&lt;0.75 set</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,47 +452,47 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
